--- a/parsingandimport/myfile.xlsx
+++ b/parsingandimport/myfile.xlsx
@@ -2,72 +2,107 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>hjb</t>
-  </si>
-  <si>
-    <t>kjbkjb</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>jboj</t>
-  </si>
-  <si>
-    <t>9y9</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>ln</t>
-  </si>
-  <si>
-    <t>h8998</t>
-  </si>
-  <si>
-    <t>n9</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>knol</t>
-  </si>
-  <si>
-    <t>kn</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>vxzcv</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>23 vxcxc</t>
+  </si>
+  <si>
+    <t>tma</t>
+  </si>
+  <si>
+    <t>97 asxc</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>afwe</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>xcvb@bxcv</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>343 gsdfg</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>asdf@asdf</t>
+  </si>
+  <si>
+    <t>oui@oiu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,22 +122,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="1"/>
+    <cellStyle name="Comma[0]" xfId="2"/>
+    <cellStyle name="Currency" xfId="3"/>
+    <cellStyle name="Currency[0]" xfId="4"/>
+    <cellStyle name="Percent" xfId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +262,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hang" typeface="?? ??"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -182,7 +296,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hang" typeface="?? ??"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -244,20 +358,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -386,65 +496,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C4" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>898</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C5" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E5" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -452,54 +657,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
-        <v>235</v>
-      </c>
-      <c r="B1">
-        <v>34654</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>67</v>
-      </c>
-      <c r="F1">
-        <v>5687</v>
-      </c>
-      <c r="G1">
-        <v>68</v>
-      </c>
-      <c r="H1">
-        <v>5678</v>
-      </c>
-      <c r="I1">
-        <v>678</v>
-      </c>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1"/>
+      <c r="I1" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>